--- a/data-raw/kirk.potato.xlsx
+++ b/data-raw/kirk.potato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrightkevi\OneDrive\kw_work\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37C80D8-57FE-40D6-904D-4DEC686A178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E847FE9-1DE7-4D31-96D0-CA3CB66E817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yield" sheetId="1" r:id="rId1"/>
@@ -138,16 +138,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -168,9 +167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -314,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,14 +471,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="7.81640625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="8" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
+    <col min="2" max="3" width="8.08984375" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" customWidth="1"/>
+    <col min="6" max="7" width="7.81640625" customWidth="1"/>
+    <col min="8" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
@@ -1566,7 +1564,7 @@
       <c r="I34" s="1">
         <v>12.7</v>
       </c>
-      <c r="J34" s="3"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -1596,7 +1594,7 @@
       <c r="I35" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
@@ -1626,7 +1624,7 @@
       <c r="I36" s="1">
         <v>12</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
@@ -1656,7 +1654,7 @@
       <c r="I37" s="1">
         <v>12</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -1686,14 +1684,11 @@
       <c r="I38" s="1">
         <v>12.2</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -1959,7 +1954,7 @@
       <c r="I8" s="1">
         <v>13</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>14</v>
       </c>
     </row>
@@ -1985,7 +1980,7 @@
       <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>11</v>
       </c>
       <c r="I9" s="1">
@@ -2011,7 +2006,7 @@
       <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>8</v>
       </c>
       <c r="G10" s="1">
@@ -2037,7 +2032,7 @@
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>5</v>
       </c>
       <c r="E11" s="1">
@@ -2063,7 +2058,7 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -2372,7 +2367,7 @@
       <c r="H21" s="1">
         <v>12</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>13</v>
       </c>
       <c r="J21" s="1">
@@ -2398,7 +2393,7 @@
       <c r="F22" s="1">
         <v>9</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>10</v>
       </c>
       <c r="H22" s="1">
@@ -2424,7 +2419,7 @@
       <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>7</v>
       </c>
       <c r="F23" s="1">
@@ -2450,7 +2445,7 @@
       <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="1">
@@ -2476,7 +2471,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>1</v>
       </c>
       <c r="B25" s="1">
@@ -2759,7 +2754,7 @@
       <c r="I33" s="1">
         <v>14</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>15</v>
       </c>
     </row>
@@ -2785,13 +2780,13 @@
       <c r="G34" s="1">
         <v>11</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>12</v>
       </c>
       <c r="I34" s="1">
         <v>14</v>
       </c>
-      <c r="J34" s="3"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -2809,7 +2804,7 @@
       <c r="E35" s="1">
         <v>8</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>9</v>
       </c>
       <c r="G35" s="1">
@@ -2821,7 +2816,7 @@
       <c r="I35" s="1">
         <v>14</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
@@ -2833,7 +2828,7 @@
       <c r="C36" s="1">
         <v>5</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>6</v>
       </c>
       <c r="E36" s="1">
@@ -2851,13 +2846,13 @@
       <c r="I36" s="1">
         <v>14</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>3</v>
       </c>
       <c r="C37" s="1">
@@ -2881,7 +2876,7 @@
       <c r="I37" s="1">
         <v>14</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -2911,14 +2906,11 @@
       <c r="I38" s="1">
         <v>14</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -3184,7 +3176,7 @@
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3210,7 +3202,7 @@
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -3236,7 +3228,7 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -3262,7 +3254,7 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3288,7 +3280,7 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3597,7 +3589,7 @@
       <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3623,7 +3615,7 @@
       <c r="F22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3649,7 +3641,7 @@
       <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -3675,7 +3667,7 @@
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3701,7 +3693,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3984,7 +3976,7 @@
       <c r="I33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4010,13 +4002,13 @@
       <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="3"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -4034,7 +4026,7 @@
       <c r="E35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -4046,7 +4038,7 @@
       <c r="I35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="3"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
@@ -4058,7 +4050,7 @@
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -4076,13 +4068,13 @@
       <c r="I36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4106,7 +4098,7 @@
       <c r="I37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="3"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
@@ -4136,13 +4128,10 @@
       <c r="I38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>